--- a/dataanalysis/data/predictions/1200/07251136_1229.xlsx
+++ b/dataanalysis/data/predictions/1200/07251136_1229.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="144">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-25</t>
   </si>
   <si>
@@ -443,12 +446,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -806,13 +803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,19 +891,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>2.41</v>
@@ -924,7 +924,7 @@
         <v>42814.77</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -944,8 +944,23 @@
       <c r="P2">
         <v>-0.24</v>
       </c>
+      <c r="Q2">
+        <v>0.8</v>
+      </c>
+      <c r="R2">
+        <v>5.27</v>
+      </c>
+      <c r="S2">
+        <v>3.54</v>
+      </c>
       <c r="V2" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -953,22 +968,25 @@
       <c r="Z2">
         <v>3.886441946029663</v>
       </c>
-      <c r="AA2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-2.63</v>
@@ -986,7 +1004,7 @@
         <v>40948.61</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3">
         <v>13</v>
@@ -1006,8 +1024,23 @@
       <c r="P3">
         <v>-0.4</v>
       </c>
+      <c r="Q3">
+        <v>0.05</v>
+      </c>
+      <c r="R3">
+        <v>22.18</v>
+      </c>
+      <c r="S3">
+        <v>-0.05</v>
+      </c>
       <c r="V3" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1015,22 +1048,25 @@
       <c r="Z3">
         <v>4.599627494812012</v>
       </c>
-      <c r="AA3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-5.31</v>
@@ -1048,7 +1084,7 @@
         <v>78401.08</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1068,8 +1104,23 @@
       <c r="P4">
         <v>-1.43</v>
       </c>
+      <c r="Q4">
+        <v>8.92</v>
+      </c>
+      <c r="R4">
+        <v>7.02</v>
+      </c>
+      <c r="S4">
+        <v>19.39</v>
+      </c>
       <c r="V4" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1077,22 +1128,25 @@
       <c r="Z4">
         <v>2.635578632354736</v>
       </c>
-      <c r="AA4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300046</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>-0.6899999999999999</v>
@@ -1110,7 +1164,7 @@
         <v>78208.47</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1130,8 +1184,23 @@
       <c r="P5">
         <v>-0.68</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>44.11</v>
+      </c>
+      <c r="S5">
+        <v>5.58</v>
+      </c>
       <c r="V5" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1139,22 +1208,25 @@
       <c r="Z5">
         <v>1.65676748752594</v>
       </c>
-      <c r="AA5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300066</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-5.13</v>
@@ -1172,7 +1244,7 @@
         <v>54723.45</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6">
         <v>11</v>
@@ -1192,8 +1264,23 @@
       <c r="P6">
         <v>-0.92</v>
       </c>
+      <c r="Q6">
+        <v>2.84</v>
+      </c>
+      <c r="R6">
+        <v>6.62</v>
+      </c>
+      <c r="S6">
+        <v>5.25</v>
+      </c>
       <c r="V6" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1201,22 +1288,25 @@
       <c r="Z6">
         <v>3.197658538818359</v>
       </c>
-      <c r="AA6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300086</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>3.7</v>
@@ -1234,7 +1324,7 @@
         <v>128397.73</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1254,8 +1344,23 @@
       <c r="P7">
         <v>-4.17</v>
       </c>
+      <c r="Q7">
+        <v>4.34</v>
+      </c>
+      <c r="R7">
+        <v>8.35</v>
+      </c>
+      <c r="S7">
+        <v>6.51</v>
+      </c>
       <c r="V7" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1263,22 +1368,25 @@
       <c r="Z7">
         <v>4.71375846862793</v>
       </c>
-      <c r="AA7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300095</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-4.88</v>
@@ -1296,7 +1404,7 @@
         <v>41012.24</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1316,8 +1424,23 @@
       <c r="P8">
         <v>-1.69</v>
       </c>
+      <c r="Q8">
+        <v>1.1</v>
+      </c>
+      <c r="R8">
+        <v>11.17</v>
+      </c>
+      <c r="S8">
+        <v>2.29</v>
+      </c>
       <c r="V8" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1325,22 +1448,25 @@
       <c r="Z8">
         <v>0.2494944036006927</v>
       </c>
-      <c r="AA8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300127</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0.49</v>
@@ -1358,7 +1484,7 @@
         <v>63955.01</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1378,8 +1504,23 @@
       <c r="P9">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="Q9">
+        <v>-0.32</v>
+      </c>
+      <c r="R9">
+        <v>31.55</v>
+      </c>
+      <c r="S9">
+        <v>1.77</v>
+      </c>
       <c r="V9" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1387,22 +1528,25 @@
       <c r="Z9">
         <v>9.105317115783691</v>
       </c>
-      <c r="AA9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300158</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>13.64</v>
@@ -1420,7 +1564,7 @@
         <v>135093.67</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1440,8 +1584,23 @@
       <c r="P10">
         <v>1.3</v>
       </c>
+      <c r="Q10">
+        <v>2.56</v>
+      </c>
+      <c r="R10">
+        <v>7.75</v>
+      </c>
+      <c r="S10">
+        <v>5.73</v>
+      </c>
       <c r="V10" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1449,22 +1608,25 @@
       <c r="Z10">
         <v>2.395715951919556</v>
       </c>
-      <c r="AA10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300189</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-8.960000000000001</v>
@@ -1482,7 +1644,7 @@
         <v>122637.21</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1502,8 +1664,23 @@
       <c r="P11">
         <v>-5.52</v>
       </c>
+      <c r="Q11">
+        <v>-2.02</v>
+      </c>
+      <c r="R11">
+        <v>4.98</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
       <c r="V11" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1511,22 +1688,25 @@
       <c r="Z11">
         <v>0.4073313474655151</v>
       </c>
-      <c r="AA11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300199</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0.64</v>
@@ -1544,7 +1724,7 @@
         <v>80736.27</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12">
         <v>18</v>
@@ -1564,8 +1744,23 @@
       <c r="P12">
         <v>-0.44</v>
       </c>
+      <c r="Q12">
+        <v>2.3</v>
+      </c>
+      <c r="R12">
+        <v>19.3</v>
+      </c>
+      <c r="S12">
+        <v>2.6</v>
+      </c>
       <c r="V12" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1573,22 +1768,25 @@
       <c r="Z12">
         <v>2.628399848937988</v>
       </c>
-      <c r="AA12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300224</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>6.07</v>
@@ -1606,7 +1804,7 @@
         <v>148015.86</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1626,8 +1824,23 @@
       <c r="P13">
         <v>-0.42</v>
       </c>
+      <c r="Q13">
+        <v>-0.99</v>
+      </c>
+      <c r="R13">
+        <v>17.2</v>
+      </c>
+      <c r="S13">
+        <v>0.47</v>
+      </c>
       <c r="V13" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1635,22 +1848,25 @@
       <c r="Z13">
         <v>6.461598873138428</v>
       </c>
-      <c r="AA13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300254</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-0.68</v>
@@ -1668,7 +1884,7 @@
         <v>45884.06</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1688,8 +1904,23 @@
       <c r="P14">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="Q14">
+        <v>4.48</v>
+      </c>
+      <c r="R14">
+        <v>12.3</v>
+      </c>
+      <c r="S14">
+        <v>5.94</v>
+      </c>
       <c r="V14" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1697,22 +1928,25 @@
       <c r="Z14">
         <v>1.150470376014709</v>
       </c>
-      <c r="AA14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300267</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>7.26</v>
@@ -1730,7 +1964,7 @@
         <v>79212.66</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1750,8 +1984,23 @@
       <c r="P15">
         <v>0.27</v>
       </c>
+      <c r="Q15">
+        <v>15.43</v>
+      </c>
+      <c r="R15">
+        <v>4.51</v>
+      </c>
+      <c r="S15">
+        <v>17.45</v>
+      </c>
       <c r="V15" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1759,22 +2008,25 @@
       <c r="Z15">
         <v>3.31973671913147</v>
       </c>
-      <c r="AA15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300283</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>-7.43</v>
@@ -1792,7 +2044,7 @@
         <v>37410.17</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -1812,8 +2064,23 @@
       <c r="P16">
         <v>-2.12</v>
       </c>
+      <c r="Q16">
+        <v>5.05</v>
+      </c>
+      <c r="R16">
+        <v>7.72</v>
+      </c>
+      <c r="S16">
+        <v>5.03</v>
+      </c>
       <c r="V16" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1821,22 +2088,25 @@
       <c r="Z16">
         <v>0.4217171370983124</v>
       </c>
-      <c r="AA16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300363</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>9.5</v>
@@ -1854,7 +2124,7 @@
         <v>120620.08</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1874,8 +2144,23 @@
       <c r="P17">
         <v>-0.16</v>
       </c>
+      <c r="Q17">
+        <v>4.99</v>
+      </c>
+      <c r="R17">
+        <v>24.98</v>
+      </c>
+      <c r="S17">
+        <v>3.69</v>
+      </c>
       <c r="V17" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -1883,22 +2168,25 @@
       <c r="Z17">
         <v>4.328619956970215</v>
       </c>
-      <c r="AA17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300378</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>6.22</v>
@@ -1916,7 +2204,7 @@
         <v>147851.85</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1936,8 +2224,23 @@
       <c r="P18">
         <v>0.67</v>
       </c>
+      <c r="Q18">
+        <v>-0.65</v>
+      </c>
+      <c r="R18">
+        <v>50.22</v>
+      </c>
+      <c r="S18">
+        <v>-0.04</v>
+      </c>
       <c r="V18" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -1945,22 +2248,25 @@
       <c r="Z18">
         <v>1.545251488685608</v>
       </c>
-      <c r="AA18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300414</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>-7.19</v>
@@ -1978,7 +2284,7 @@
         <v>65681.66</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -1998,8 +2304,23 @@
       <c r="P19">
         <v>-1.49</v>
       </c>
+      <c r="Q19">
+        <v>2.86</v>
+      </c>
+      <c r="R19">
+        <v>14.5</v>
+      </c>
+      <c r="S19">
+        <v>3.06</v>
+      </c>
       <c r="V19" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -2007,22 +2328,25 @@
       <c r="Z19">
         <v>1.180450677871704</v>
       </c>
-      <c r="AA19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300436</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>3.07</v>
@@ -2040,7 +2364,7 @@
         <v>82636.47</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20">
         <v>17</v>
@@ -2060,8 +2384,23 @@
       <c r="P20">
         <v>0.45</v>
       </c>
+      <c r="Q20">
+        <v>13.68</v>
+      </c>
+      <c r="R20">
+        <v>88.88</v>
+      </c>
+      <c r="S20">
+        <v>17.8</v>
+      </c>
       <c r="V20" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2069,22 +2408,25 @@
       <c r="Z20">
         <v>1.746817946434021</v>
       </c>
-      <c r="AA20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300485</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-2.03</v>
@@ -2102,7 +2444,7 @@
         <v>30302.16</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2122,8 +2464,23 @@
       <c r="P21">
         <v>-1.34</v>
       </c>
+      <c r="Q21">
+        <v>0.34</v>
+      </c>
+      <c r="R21">
+        <v>15.24</v>
+      </c>
+      <c r="S21">
+        <v>1.87</v>
+      </c>
       <c r="V21" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2131,22 +2488,25 @@
       <c r="Z21">
         <v>2.761178970336914</v>
       </c>
-      <c r="AA21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300490</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-6.53</v>
@@ -2164,7 +2524,7 @@
         <v>49810.51</v>
       </c>
       <c r="J22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2184,8 +2544,23 @@
       <c r="P22">
         <v>-2.05</v>
       </c>
+      <c r="Q22">
+        <v>-1.69</v>
+      </c>
+      <c r="R22">
+        <v>10.04</v>
+      </c>
+      <c r="S22">
+        <v>0.2</v>
+      </c>
       <c r="V22" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2193,22 +2568,25 @@
       <c r="Z22">
         <v>8.08149242401123</v>
       </c>
-      <c r="AA22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300500</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>-5.92</v>
@@ -2226,7 +2604,7 @@
         <v>26096.9</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2246,8 +2624,23 @@
       <c r="P23">
         <v>-0.93</v>
       </c>
+      <c r="Q23">
+        <v>-1.03</v>
+      </c>
+      <c r="R23">
+        <v>13.52</v>
+      </c>
+      <c r="S23">
+        <v>-1.1</v>
+      </c>
       <c r="V23" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2255,22 +2648,25 @@
       <c r="Z23">
         <v>6.272574901580811</v>
       </c>
-      <c r="AA23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300527</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-1.74</v>
@@ -2288,7 +2684,7 @@
         <v>33416.24</v>
       </c>
       <c r="J24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K24">
         <v>19</v>
@@ -2308,8 +2704,23 @@
       <c r="P24">
         <v>-0.31</v>
       </c>
+      <c r="Q24">
+        <v>1.24</v>
+      </c>
+      <c r="R24">
+        <v>11.61</v>
+      </c>
+      <c r="S24">
+        <v>2.74</v>
+      </c>
       <c r="V24" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2317,22 +2728,25 @@
       <c r="Z24">
         <v>4.440624237060547</v>
       </c>
-      <c r="AA24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300528</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>5.4</v>
@@ -2350,7 +2764,7 @@
         <v>80482.61</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2370,8 +2784,23 @@
       <c r="P25">
         <v>-0.16</v>
       </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+      <c r="R25">
+        <v>17.58</v>
+      </c>
+      <c r="S25">
+        <v>16.89</v>
+      </c>
       <c r="V25" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
       </c>
       <c r="Y25">
         <v>1</v>
@@ -2379,22 +2808,25 @@
       <c r="Z25">
         <v>2.220459222793579</v>
       </c>
-      <c r="AA25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300533</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-0.11</v>
@@ -2412,7 +2844,7 @@
         <v>30563.91</v>
       </c>
       <c r="J26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K26">
         <v>23</v>
@@ -2432,8 +2864,23 @@
       <c r="P26">
         <v>-0.67</v>
       </c>
+      <c r="Q26">
+        <v>1.13</v>
+      </c>
+      <c r="R26">
+        <v>36.24</v>
+      </c>
+      <c r="S26">
+        <v>1.85</v>
+      </c>
       <c r="V26" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2441,22 +2888,25 @@
       <c r="Z26">
         <v>1.512868285179138</v>
       </c>
-      <c r="AA26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300539</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>17.31</v>
@@ -2474,7 +2924,7 @@
         <v>91273</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2494,8 +2944,23 @@
       <c r="P27">
         <v>0.29</v>
       </c>
+      <c r="Q27">
+        <v>4.47</v>
+      </c>
+      <c r="R27">
+        <v>28</v>
+      </c>
+      <c r="S27">
+        <v>20.79</v>
+      </c>
       <c r="V27" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2503,22 +2968,25 @@
       <c r="Z27">
         <v>1.99017870426178</v>
       </c>
-      <c r="AA27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300548</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>-0.55</v>
@@ -2536,7 +3004,7 @@
         <v>99054.27</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -2556,8 +3024,23 @@
       <c r="P28">
         <v>-0.43</v>
       </c>
+      <c r="Q28">
+        <v>1.74</v>
+      </c>
+      <c r="R28">
+        <v>85.36</v>
+      </c>
+      <c r="S28">
+        <v>2.69</v>
+      </c>
       <c r="V28" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2565,22 +3048,25 @@
       <c r="Z28">
         <v>3.636058568954468</v>
       </c>
-      <c r="AA28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300581</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-1.75</v>
@@ -2598,7 +3084,7 @@
         <v>50976.78</v>
       </c>
       <c r="J29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -2618,8 +3104,23 @@
       <c r="P29">
         <v>-0.41</v>
       </c>
+      <c r="Q29">
+        <v>4.06</v>
+      </c>
+      <c r="R29">
+        <v>21.7</v>
+      </c>
+      <c r="S29">
+        <v>4.18</v>
+      </c>
       <c r="V29" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2627,22 +3128,25 @@
       <c r="Z29">
         <v>1.484210610389709</v>
       </c>
-      <c r="AA29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300631</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-7.19</v>
@@ -2660,7 +3164,7 @@
         <v>53411.49</v>
       </c>
       <c r="J30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -2680,8 +3184,23 @@
       <c r="P30">
         <v>-0.44</v>
       </c>
+      <c r="Q30">
+        <v>0.48</v>
+      </c>
+      <c r="R30">
+        <v>33.4</v>
+      </c>
+      <c r="S30">
+        <v>2.27</v>
+      </c>
       <c r="V30" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2689,22 +3208,25 @@
       <c r="Z30">
         <v>1.782768964767456</v>
       </c>
-      <c r="AA30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300644</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>0.12</v>
@@ -2722,7 +3244,7 @@
         <v>19282.32</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -2742,8 +3264,23 @@
       <c r="P31">
         <v>-0.24</v>
       </c>
+      <c r="Q31">
+        <v>5.57</v>
+      </c>
+      <c r="R31">
+        <v>34.27</v>
+      </c>
+      <c r="S31">
+        <v>6.03</v>
+      </c>
       <c r="V31" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2751,22 +3288,25 @@
       <c r="Z31">
         <v>1.178630232810974</v>
       </c>
-      <c r="AA31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300665</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>-3.89</v>
@@ -2784,7 +3324,7 @@
         <v>17708.31</v>
       </c>
       <c r="J32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -2804,8 +3344,23 @@
       <c r="P32">
         <v>-2.33</v>
       </c>
+      <c r="Q32">
+        <v>2.31</v>
+      </c>
+      <c r="R32">
+        <v>9.82</v>
+      </c>
+      <c r="S32">
+        <v>1.97</v>
+      </c>
       <c r="V32" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2813,22 +3368,25 @@
       <c r="Z32">
         <v>3.554482936859131</v>
       </c>
-      <c r="AA32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300683</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>1.88</v>
@@ -2846,7 +3404,7 @@
         <v>54986.21</v>
       </c>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -2866,8 +3424,23 @@
       <c r="P33">
         <v>0.48</v>
       </c>
+      <c r="Q33">
+        <v>-5.45</v>
+      </c>
+      <c r="R33">
+        <v>45.5</v>
+      </c>
+      <c r="S33">
+        <v>4.84</v>
+      </c>
       <c r="V33" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2875,22 +3448,25 @@
       <c r="Z33">
         <v>3.711756229400635</v>
       </c>
-      <c r="AA33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300706</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>19.99</v>
@@ -2908,7 +3484,7 @@
         <v>105660.21</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2928,8 +3504,23 @@
       <c r="P34">
         <v>6.19</v>
       </c>
+      <c r="Q34">
+        <v>9.18</v>
+      </c>
+      <c r="R34">
+        <v>37.68</v>
+      </c>
+      <c r="S34">
+        <v>12.71</v>
+      </c>
       <c r="V34" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2937,22 +3528,25 @@
       <c r="Z34">
         <v>6.888310432434082</v>
       </c>
-      <c r="AA34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300722</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>-1.84</v>
@@ -2970,7 +3564,7 @@
         <v>30589.31</v>
       </c>
       <c r="J35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -2990,8 +3584,23 @@
       <c r="P35">
         <v>-0.38</v>
       </c>
+      <c r="Q35">
+        <v>1.22</v>
+      </c>
+      <c r="R35">
+        <v>38.67</v>
+      </c>
+      <c r="S35">
+        <v>2.06</v>
+      </c>
       <c r="V35" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2999,22 +3608,25 @@
       <c r="Z35">
         <v>1.32297682762146</v>
       </c>
-      <c r="AA35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300748</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-1.72</v>
@@ -3032,7 +3644,7 @@
         <v>186521.06</v>
       </c>
       <c r="J36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K36">
         <v>11</v>
@@ -3052,8 +3664,23 @@
       <c r="P36">
         <v>-0.57</v>
       </c>
+      <c r="Q36">
+        <v>-0.52</v>
+      </c>
+      <c r="R36">
+        <v>28.93</v>
+      </c>
+      <c r="S36">
+        <v>1.15</v>
+      </c>
       <c r="V36" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3061,22 +3688,25 @@
       <c r="Z36">
         <v>0.8165423274040222</v>
       </c>
-      <c r="AA36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300803</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-0.7</v>
@@ -3094,7 +3724,7 @@
         <v>290728.01</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K37">
         <v>21</v>
@@ -3114,8 +3744,23 @@
       <c r="P37">
         <v>-0.02</v>
       </c>
+      <c r="Q37">
+        <v>1.54</v>
+      </c>
+      <c r="R37">
+        <v>95.84</v>
+      </c>
+      <c r="S37">
+        <v>1.7</v>
+      </c>
       <c r="V37" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -3123,22 +3768,25 @@
       <c r="Z37">
         <v>7.446715831756592</v>
       </c>
-      <c r="AA37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300835</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-5.59</v>
@@ -3156,7 +3804,7 @@
         <v>75561.99000000001</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -3176,8 +3824,23 @@
       <c r="P38">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="Q38">
+        <v>4.97</v>
+      </c>
+      <c r="R38">
+        <v>61.16</v>
+      </c>
+      <c r="S38">
+        <v>6.2</v>
+      </c>
       <c r="V38" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3185,22 +3848,25 @@
       <c r="Z38">
         <v>3.783413171768188</v>
       </c>
-      <c r="AA38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300865</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-5.46</v>
@@ -3218,7 +3884,7 @@
         <v>29712.75</v>
       </c>
       <c r="J39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -3238,8 +3904,23 @@
       <c r="P39">
         <v>-0.43</v>
       </c>
+      <c r="Q39">
+        <v>-1.14</v>
+      </c>
+      <c r="R39">
+        <v>37.2</v>
+      </c>
+      <c r="S39">
+        <v>-2.8</v>
+      </c>
       <c r="V39" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3247,22 +3928,25 @@
       <c r="Z39">
         <v>-0.1535680592060089</v>
       </c>
-      <c r="AA39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300872</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-0.9</v>
@@ -3280,7 +3964,7 @@
         <v>89265.12</v>
       </c>
       <c r="J40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -3300,8 +3984,23 @@
       <c r="P40">
         <v>-0.48</v>
       </c>
+      <c r="Q40">
+        <v>6.03</v>
+      </c>
+      <c r="R40">
+        <v>27.48</v>
+      </c>
+      <c r="S40">
+        <v>8.92</v>
+      </c>
       <c r="V40" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3309,22 +4008,25 @@
       <c r="Z40">
         <v>3.039723634719849</v>
       </c>
-      <c r="AA40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>300877</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>0.72</v>
@@ -3342,7 +4044,7 @@
         <v>59372.44</v>
       </c>
       <c r="J41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3362,8 +4064,23 @@
       <c r="P41">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="Q41">
+        <v>-1.32</v>
+      </c>
+      <c r="R41">
+        <v>26.7</v>
+      </c>
+      <c r="S41">
+        <v>5.53</v>
+      </c>
       <c r="V41" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3371,22 +4088,25 @@
       <c r="Z41">
         <v>3.939453840255737</v>
       </c>
-      <c r="AA41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>300881</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-3.31</v>
@@ -3404,7 +4124,7 @@
         <v>19297.56</v>
       </c>
       <c r="J42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -3424,8 +4144,23 @@
       <c r="P42">
         <v>-0.7</v>
       </c>
+      <c r="Q42">
+        <v>-0.62</v>
+      </c>
+      <c r="R42">
+        <v>39.06</v>
+      </c>
+      <c r="S42">
+        <v>-0.33</v>
+      </c>
       <c r="V42" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3433,22 +4168,25 @@
       <c r="Z42">
         <v>6.086672306060791</v>
       </c>
-      <c r="AA42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>300885</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>-7.47</v>
@@ -3466,7 +4204,7 @@
         <v>38933.11</v>
       </c>
       <c r="J43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -3486,8 +4224,23 @@
       <c r="P43">
         <v>-0.96</v>
       </c>
+      <c r="Q43">
+        <v>-2.51</v>
+      </c>
+      <c r="R43">
+        <v>19</v>
+      </c>
+      <c r="S43">
+        <v>10.4</v>
+      </c>
       <c r="V43" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3495,22 +4248,25 @@
       <c r="Z43">
         <v>3.539716958999634</v>
       </c>
-      <c r="AA43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>300955</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>-2.07</v>
@@ -3528,7 +4284,7 @@
         <v>23683.13</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3548,8 +4304,23 @@
       <c r="P44">
         <v>1.55</v>
       </c>
+      <c r="Q44">
+        <v>1.94</v>
+      </c>
+      <c r="R44">
+        <v>23.49</v>
+      </c>
+      <c r="S44">
+        <v>3.39</v>
+      </c>
       <c r="V44" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3557,22 +4328,25 @@
       <c r="Z44">
         <v>2.231594800949097</v>
       </c>
-      <c r="AA44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301038</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-14.62</v>
@@ -3590,7 +4364,7 @@
         <v>70235.62</v>
       </c>
       <c r="J45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K45">
         <v>4</v>
@@ -3610,8 +4384,23 @@
       <c r="P45">
         <v>-0.23</v>
       </c>
+      <c r="Q45">
+        <v>-4.27</v>
+      </c>
+      <c r="R45">
+        <v>26.36</v>
+      </c>
+      <c r="S45">
+        <v>-7.51</v>
+      </c>
       <c r="V45" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3619,22 +4408,25 @@
       <c r="Z45">
         <v>5.165785789489746</v>
       </c>
-      <c r="AA45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301141</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>-3.5</v>
@@ -3652,7 +4444,7 @@
         <v>49883.58</v>
       </c>
       <c r="J46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K46">
         <v>21</v>
@@ -3672,8 +4464,23 @@
       <c r="P46">
         <v>-1.95</v>
       </c>
+      <c r="Q46">
+        <v>-0.12</v>
+      </c>
+      <c r="R46">
+        <v>68.95</v>
+      </c>
+      <c r="S46">
+        <v>1.28</v>
+      </c>
       <c r="V46" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3681,22 +4488,25 @@
       <c r="Z46">
         <v>5.118061542510986</v>
       </c>
-      <c r="AA46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301151</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>-8.789999999999999</v>
@@ -3714,7 +4524,7 @@
         <v>32415.75</v>
       </c>
       <c r="J47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -3734,8 +4544,23 @@
       <c r="P47">
         <v>-0.86</v>
       </c>
+      <c r="Q47">
+        <v>3.26</v>
+      </c>
+      <c r="R47">
+        <v>22.98</v>
+      </c>
+      <c r="S47">
+        <v>2.96</v>
+      </c>
       <c r="V47" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3743,22 +4568,25 @@
       <c r="Z47">
         <v>6.000565528869629</v>
       </c>
-      <c r="AA47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301183</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>-0.39</v>
@@ -3776,7 +4604,7 @@
         <v>19306.03</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K48">
         <v>8</v>
@@ -3796,8 +4624,23 @@
       <c r="P48">
         <v>0.18</v>
       </c>
+      <c r="Q48">
+        <v>0.47</v>
+      </c>
+      <c r="R48">
+        <v>66.92</v>
+      </c>
+      <c r="S48">
+        <v>1.26</v>
+      </c>
       <c r="V48" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3805,22 +4648,25 @@
       <c r="Z48">
         <v>7.488025188446045</v>
       </c>
-      <c r="AA48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301200</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-3.42</v>
@@ -3838,7 +4684,7 @@
         <v>40477.98</v>
       </c>
       <c r="J49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -3858,8 +4704,23 @@
       <c r="P49">
         <v>0.1</v>
       </c>
+      <c r="Q49">
+        <v>19.99</v>
+      </c>
+      <c r="R49">
+        <v>69.14</v>
+      </c>
+      <c r="S49">
+        <v>20.01</v>
+      </c>
       <c r="V49" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3867,22 +4728,25 @@
       <c r="Z49">
         <v>5.099403381347656</v>
       </c>
-      <c r="AA49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301201</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-0.84</v>
@@ -3900,7 +4764,7 @@
         <v>17296.95</v>
       </c>
       <c r="J50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -3920,8 +4784,23 @@
       <c r="P50">
         <v>0.12</v>
       </c>
+      <c r="Q50">
+        <v>-0.3</v>
+      </c>
+      <c r="R50">
+        <v>27.49</v>
+      </c>
+      <c r="S50">
+        <v>1.66</v>
+      </c>
       <c r="V50" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3929,22 +4808,25 @@
       <c r="Z50">
         <v>8.80247974395752</v>
       </c>
-      <c r="AA50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301217</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>-9.17</v>
@@ -3962,7 +4844,7 @@
         <v>121422.41</v>
       </c>
       <c r="J51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K51">
         <v>15</v>
@@ -3982,8 +4864,23 @@
       <c r="P51">
         <v>0.19</v>
       </c>
+      <c r="Q51">
+        <v>20</v>
+      </c>
+      <c r="R51">
+        <v>25.08</v>
+      </c>
+      <c r="S51">
+        <v>17.8</v>
+      </c>
       <c r="V51" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3991,22 +4888,25 @@
       <c r="Z51">
         <v>3.13104510307312</v>
       </c>
-      <c r="AA51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301345</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>14.36</v>
@@ -4024,7 +4924,7 @@
         <v>67252.81</v>
       </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -4044,8 +4944,23 @@
       <c r="P52">
         <v>0.27</v>
       </c>
+      <c r="Q52">
+        <v>-1.48</v>
+      </c>
+      <c r="R52">
+        <v>161.39</v>
+      </c>
+      <c r="S52">
+        <v>-1.31</v>
+      </c>
       <c r="V52" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4053,22 +4968,25 @@
       <c r="Z52">
         <v>2.789403676986694</v>
       </c>
-      <c r="AA52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301377</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>3.49</v>
@@ -4086,7 +5004,7 @@
         <v>30315.09</v>
       </c>
       <c r="J53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -4106,8 +5024,23 @@
       <c r="P53">
         <v>-0.44</v>
       </c>
+      <c r="Q53">
+        <v>12.61</v>
+      </c>
+      <c r="R53">
+        <v>57.74</v>
+      </c>
+      <c r="S53">
+        <v>19.47</v>
+      </c>
       <c r="V53" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4115,22 +5048,25 @@
       <c r="Z53">
         <v>6.258332252502441</v>
       </c>
-      <c r="AA53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301389</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>-0.87</v>
@@ -4148,7 +5084,7 @@
         <v>25698.37</v>
       </c>
       <c r="J54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K54">
         <v>14</v>
@@ -4168,8 +5104,23 @@
       <c r="P54">
         <v>-0.59</v>
       </c>
+      <c r="Q54">
+        <v>6.71</v>
+      </c>
+      <c r="R54">
+        <v>36.44</v>
+      </c>
+      <c r="S54">
+        <v>10.06</v>
+      </c>
       <c r="V54" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4177,22 +5128,25 @@
       <c r="Z54">
         <v>4.199626445770264</v>
       </c>
-      <c r="AA54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301421</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>0.26</v>
@@ -4210,7 +5164,7 @@
         <v>35404.05</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K55">
         <v>25</v>
@@ -4230,8 +5184,23 @@
       <c r="P55">
         <v>-0.5</v>
       </c>
+      <c r="Q55">
+        <v>-2.71</v>
+      </c>
+      <c r="R55">
+        <v>86</v>
+      </c>
+      <c r="S55">
+        <v>8.08</v>
+      </c>
       <c r="V55" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4239,22 +5208,25 @@
       <c r="Z55">
         <v>2.619433403015137</v>
       </c>
-      <c r="AA55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301511</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>-2.2</v>
@@ -4272,7 +5244,7 @@
         <v>46041.47</v>
       </c>
       <c r="J56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K56">
         <v>24</v>
@@ -4292,8 +5264,23 @@
       <c r="P56">
         <v>-0.05</v>
       </c>
+      <c r="Q56">
+        <v>12.14</v>
+      </c>
+      <c r="R56">
+        <v>31.4</v>
+      </c>
+      <c r="S56">
+        <v>11.9</v>
+      </c>
       <c r="V56" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4301,22 +5288,25 @@
       <c r="Z56">
         <v>5.757311344146729</v>
       </c>
-      <c r="AA56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301526</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>-1.63</v>
@@ -4334,7 +5324,7 @@
         <v>23670.46</v>
       </c>
       <c r="J57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K57">
         <v>14</v>
@@ -4354,8 +5344,23 @@
       <c r="P57">
         <v>-0.89</v>
       </c>
+      <c r="Q57">
+        <v>2.7</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
+      </c>
+      <c r="S57">
+        <v>3.73</v>
+      </c>
       <c r="V57" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4363,22 +5368,25 @@
       <c r="Z57">
         <v>1.568507671356201</v>
       </c>
-      <c r="AA57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>301529</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>3.95</v>
@@ -4396,7 +5404,7 @@
         <v>19084.44</v>
       </c>
       <c r="J58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K58">
         <v>5</v>
@@ -4416,8 +5424,23 @@
       <c r="P58">
         <v>0</v>
       </c>
+      <c r="Q58">
+        <v>3.27</v>
+      </c>
+      <c r="R58">
+        <v>62.97</v>
+      </c>
+      <c r="S58">
+        <v>9.32</v>
+      </c>
       <c r="V58" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4425,22 +5448,25 @@
       <c r="Z58">
         <v>0.3592486977577209</v>
       </c>
-      <c r="AA58" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>301626</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>0.85</v>
@@ -4458,7 +5484,7 @@
         <v>24296.27</v>
       </c>
       <c r="J59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -4478,8 +5504,23 @@
       <c r="P59">
         <v>0.43</v>
       </c>
+      <c r="Q59">
+        <v>-1.14</v>
+      </c>
+      <c r="R59">
+        <v>145.88</v>
+      </c>
+      <c r="S59">
+        <v>2.73</v>
+      </c>
       <c r="V59" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4487,22 +5528,25 @@
       <c r="Z59">
         <v>4.897165775299072</v>
       </c>
-      <c r="AA59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>688062</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>-1.74</v>
@@ -4520,7 +5564,7 @@
         <v>32288.68</v>
       </c>
       <c r="J60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K60">
         <v>17</v>
@@ -4540,8 +5584,23 @@
       <c r="P60">
         <v>-0.46</v>
       </c>
+      <c r="Q60">
+        <v>3.36</v>
+      </c>
+      <c r="R60">
+        <v>33.97</v>
+      </c>
+      <c r="S60">
+        <v>4.01</v>
+      </c>
       <c r="V60" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4549,22 +5608,25 @@
       <c r="Z60">
         <v>2.100605487823486</v>
       </c>
-      <c r="AA60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>688202</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>4.04</v>
@@ -4582,7 +5644,7 @@
         <v>58339.76</v>
       </c>
       <c r="J61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K61">
         <v>14</v>
@@ -4602,8 +5664,23 @@
       <c r="P61">
         <v>0.24</v>
       </c>
+      <c r="Q61">
+        <v>3.19</v>
+      </c>
+      <c r="R61">
+        <v>67.98</v>
+      </c>
+      <c r="S61">
+        <v>-1.9</v>
+      </c>
       <c r="V61" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4611,22 +5688,25 @@
       <c r="Z61">
         <v>3.8324294090271</v>
       </c>
-      <c r="AA61" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>688210</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>2.54</v>
@@ -4644,7 +5724,7 @@
         <v>49475.32</v>
       </c>
       <c r="J62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -4664,8 +5744,23 @@
       <c r="P62">
         <v>0.08</v>
       </c>
+      <c r="Q62">
+        <v>-3.84</v>
+      </c>
+      <c r="R62">
+        <v>35.25</v>
+      </c>
+      <c r="S62">
+        <v>2.65</v>
+      </c>
       <c r="V62" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4673,22 +5768,25 @@
       <c r="Z62">
         <v>3.497207880020142</v>
       </c>
-      <c r="AA62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>688221</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>-2.77</v>
@@ -4706,7 +5804,7 @@
         <v>56222</v>
       </c>
       <c r="J63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K63">
         <v>15</v>
@@ -4726,8 +5824,23 @@
       <c r="P63">
         <v>-0.26</v>
       </c>
+      <c r="Q63">
+        <v>4.61</v>
+      </c>
+      <c r="R63">
+        <v>20.87</v>
+      </c>
+      <c r="S63">
+        <v>4.35</v>
+      </c>
       <c r="V63" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4735,22 +5848,25 @@
       <c r="Z63">
         <v>1.811267018318176</v>
       </c>
-      <c r="AA63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>688222</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>-4.14</v>
@@ -4768,7 +5884,7 @@
         <v>56084.67</v>
       </c>
       <c r="J64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K64">
         <v>6</v>
@@ -4788,8 +5904,23 @@
       <c r="P64">
         <v>-0.98</v>
       </c>
+      <c r="Q64">
+        <v>-0.31</v>
+      </c>
+      <c r="R64">
+        <v>23.25</v>
+      </c>
+      <c r="S64">
+        <v>0.48</v>
+      </c>
       <c r="V64" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4797,22 +5928,25 @@
       <c r="Z64">
         <v>3.372562408447266</v>
       </c>
-      <c r="AA64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>688313</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>4.27</v>
@@ -4830,7 +5964,7 @@
         <v>110160.27</v>
       </c>
       <c r="J65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K65">
         <v>28</v>
@@ -4850,8 +5984,23 @@
       <c r="P65">
         <v>-0.06</v>
       </c>
+      <c r="Q65">
+        <v>9.27</v>
+      </c>
+      <c r="R65">
+        <v>61.2</v>
+      </c>
+      <c r="S65">
+        <v>9.34</v>
+      </c>
       <c r="V65" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4859,22 +6008,25 @@
       <c r="Z65">
         <v>3.850422620773315</v>
       </c>
-      <c r="AA65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>688321</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>-3.99</v>
@@ -4892,7 +6044,7 @@
         <v>66537.7</v>
       </c>
       <c r="J66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K66">
         <v>19</v>
@@ -4912,8 +6064,23 @@
       <c r="P66">
         <v>-0.61</v>
       </c>
+      <c r="Q66">
+        <v>0.92</v>
+      </c>
+      <c r="R66">
+        <v>34.66</v>
+      </c>
+      <c r="S66">
+        <v>3.74</v>
+      </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4921,22 +6088,25 @@
       <c r="Z66">
         <v>6.640130519866943</v>
       </c>
-      <c r="AA66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>688356</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>-3.8</v>
@@ -4954,7 +6124,7 @@
         <v>27058.84</v>
       </c>
       <c r="J67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K67">
         <v>4</v>
@@ -4974,8 +6144,23 @@
       <c r="P67">
         <v>-0.51</v>
       </c>
+      <c r="Q67">
+        <v>1.17</v>
+      </c>
+      <c r="R67">
+        <v>101.89</v>
+      </c>
+      <c r="S67">
+        <v>3.28</v>
+      </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -4983,22 +6168,25 @@
       <c r="Z67">
         <v>4.910627365112305</v>
       </c>
-      <c r="AA67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>688499</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
         <v>0.25</v>
@@ -5016,7 +6204,7 @@
         <v>36286.57</v>
       </c>
       <c r="J68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K68">
         <v>29</v>
@@ -5036,8 +6224,23 @@
       <c r="P68">
         <v>-0.55</v>
       </c>
+      <c r="Q68">
+        <v>4.02</v>
+      </c>
+      <c r="R68">
+        <v>55.99</v>
+      </c>
+      <c r="S68">
+        <v>6.49</v>
+      </c>
       <c r="V68" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -5045,22 +6248,25 @@
       <c r="Z68">
         <v>1.779597640037537</v>
       </c>
-      <c r="AA68" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>688660</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>-7.43</v>
@@ -5078,7 +6284,7 @@
         <v>100460.36</v>
       </c>
       <c r="J69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -5098,8 +6304,23 @@
       <c r="P69">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="Q69">
+        <v>17.47</v>
+      </c>
+      <c r="R69">
+        <v>15.3</v>
+      </c>
+      <c r="S69">
+        <v>23.99</v>
+      </c>
       <c r="V69" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -5107,22 +6328,25 @@
       <c r="Z69">
         <v>3.828243732452393</v>
       </c>
-      <c r="AA69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>688668</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>-0.13</v>
@@ -5140,7 +6364,7 @@
         <v>46148.97</v>
       </c>
       <c r="J70" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K70">
         <v>7</v>
@@ -5160,8 +6384,23 @@
       <c r="P70">
         <v>-0.08</v>
       </c>
+      <c r="Q70">
+        <v>5.15</v>
+      </c>
+      <c r="R70">
+        <v>81.78</v>
+      </c>
+      <c r="S70">
+        <v>3.98</v>
+      </c>
       <c r="V70" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>1</v>
@@ -5169,8 +6408,11 @@
       <c r="Z70">
         <v>9.764305114746094</v>
       </c>
-      <c r="AA70" t="s">
-        <v>143</v>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
